--- a/backend/bdd/dictionnaire/base-dictionnaire-données.xlsx
+++ b/backend/bdd/dictionnaire/base-dictionnaire-données.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\var\www\html\atelier-programmation\BudgetManager\backend\bdd\dictionnaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518FEFA6-08EA-4A01-B3B9-29338E5D6F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828CC68A-A4D4-4A32-85FB-85FE70B4C70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,13 +157,13 @@
     <t>VARCHAR(100)</t>
   </si>
   <si>
-    <t>VARCHAR</t>
-  </si>
-  <si>
     <t>INT(2)</t>
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
   </si>
 </sst>
 </file>
@@ -614,39 +614,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -655,13 +646,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -670,13 +658,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,13 +670,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -700,13 +682,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,13 +694,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,13 +706,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -745,13 +718,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,13 +730,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,13 +742,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,13 +754,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,13 +766,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,13 +778,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,19 +790,64 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.28515625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1178,449 +1178,449 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74"/>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74"/>
+      <c r="B4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74"/>
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="75"/>
+      <c r="B6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="77"/>
+      <c r="B8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
+      <c r="B9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
+      <c r="B11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="78"/>
+      <c r="B13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="80"/>
+      <c r="B15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="82"/>
+      <c r="B17" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="83"/>
+      <c r="B18" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="56"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="85"/>
+      <c r="B20" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="64"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="87"/>
+      <c r="B22" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="68"/>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="87"/>
+      <c r="B23" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="68"/>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="87"/>
+      <c r="B24" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="68"/>
+    </row>
+    <row r="25" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="88"/>
+      <c r="B25" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="53"/>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="68"/>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="78"/>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="83"/>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="83"/>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="83"/>
-    </row>
-    <row r="25" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="88"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A21:A25"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/backend/bdd/dictionnaire/base-dictionnaire-données.xlsx
+++ b/backend/bdd/dictionnaire/base-dictionnaire-données.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\var\www\html\atelier-programmation\BudgetManager\backend\bdd\dictionnaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828CC68A-A4D4-4A32-85FB-85FE70B4C70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B265C-9458-43FE-92B7-CA7F59C6ABA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
   <si>
     <t>Table</t>
   </si>
@@ -242,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -553,6 +553,21 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -563,23 +578,19 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -588,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,121 +744,127 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1135,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.28515625" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1195,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1201,7 +1218,7 @@
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
@@ -1216,7 +1233,7 @@
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
@@ -1231,7 +1248,7 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
@@ -1246,7 +1263,7 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="17" t="s">
         <v>24</v>
       </c>
@@ -1261,7 +1278,7 @@
       <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="75" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1284,7 +1301,7 @@
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="25" t="s">
         <v>25</v>
       </c>
@@ -1301,7 +1318,7 @@
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
@@ -1320,7 +1337,7 @@
       <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="25" t="s">
         <v>27</v>
       </c>
@@ -1335,7 +1352,7 @@
       <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
@@ -1350,7 +1367,7 @@
       <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="25" t="s">
         <v>15</v>
       </c>
@@ -1361,9 +1378,7 @@
       <c r="E12" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>41</v>
-      </c>
+      <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
         <v>41</v>
@@ -1371,7 +1386,7 @@
       <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="29" t="s">
         <v>17</v>
       </c>
@@ -1382,9 +1397,7 @@
       <c r="E13" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="31" t="s">
-        <v>41</v>
-      </c>
+      <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31" t="s">
         <v>41</v>
@@ -1392,7 +1405,7 @@
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="78" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
@@ -1415,7 +1428,7 @@
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="37" t="s">
         <v>29</v>
       </c>
@@ -1432,7 +1445,7 @@
       <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="84" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="41" t="s">
@@ -1455,7 +1468,7 @@
       <c r="I16" s="44"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="45" t="s">
         <v>30</v>
       </c>
@@ -1469,158 +1482,175 @@
       <c r="H17" s="47"/>
       <c r="I17" s="48"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="49" t="s">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="85"/>
+      <c r="B18" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="83"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="86"/>
+      <c r="B19" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="51"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C20" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="56"/>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
-      <c r="B20" s="57" t="s">
+      <c r="D20" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="86"/>
+      <c r="B21" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C21" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B22" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C22" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="64"/>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
-      <c r="B22" s="65" t="s">
+      <c r="D22" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="63"/>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89"/>
+      <c r="B23" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C23" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="68"/>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="87"/>
-      <c r="B23" s="65" t="s">
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="67"/>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89"/>
+      <c r="B24" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C24" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="68"/>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87"/>
-      <c r="B24" s="65" t="s">
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
+    </row>
+    <row r="25" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="89"/>
+      <c r="B25" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C25" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="68"/>
-    </row>
-    <row r="25" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88"/>
-      <c r="B25" s="69" t="s">
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="67"/>
+    </row>
+    <row r="26" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="86"/>
+      <c r="B26" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C26" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="72"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A21:A25"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
